--- a/data/excel/institutions.xlsx
+++ b/data/excel/institutions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="7464" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="slovník" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10293" uniqueCount="4223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10301" uniqueCount="4228">
   <si>
     <t>code</t>
   </si>
@@ -12699,6 +12699,21 @@
   </si>
   <si>
     <t>polytechnique-montreal</t>
+  </si>
+  <si>
+    <t>cesnet</t>
+  </si>
+  <si>
+    <t>CESNET</t>
+  </si>
+  <si>
+    <t>https://ror.org/050dkka69</t>
+  </si>
+  <si>
+    <t>Czech Education and Scientific Network</t>
+  </si>
+  <si>
+    <t>https://www.cesnet.cz</t>
   </si>
 </sst>
 </file>
@@ -13207,9 +13222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK1802"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1788" sqref="A1788:XFD1788"/>
+      <selection pane="bottomLeft" activeCell="A1792" sqref="A1792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -73358,22 +73373,43 @@
       <c r="AE1791" s="19"/>
     </row>
     <row r="1792" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1792" s="19"/>
-      <c r="B1792" s="19"/>
-      <c r="C1792"/>
+      <c r="A1792" s="19">
+        <v>1</v>
+      </c>
+      <c r="B1792" s="19" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>4224</v>
+      </c>
       <c r="D1792" s="19"/>
-      <c r="E1792" s="19"/>
-      <c r="G1792" s="19"/>
+      <c r="E1792" s="19" t="s">
+        <v>4224</v>
+      </c>
+      <c r="G1792" s="19" t="s">
+        <v>3619</v>
+      </c>
       <c r="H1792" s="19"/>
+      <c r="I1792" s="8" t="s">
+        <v>4226</v>
+      </c>
       <c r="J1792" s="19"/>
       <c r="K1792" s="19"/>
       <c r="M1792" s="19"/>
       <c r="N1792" s="19"/>
-      <c r="O1792" s="3"/>
-      <c r="P1792" s="19"/>
-      <c r="Q1792" s="19"/>
+      <c r="O1792" s="17">
+        <v>63839172</v>
+      </c>
+      <c r="P1792" s="22" t="s">
+        <v>4225</v>
+      </c>
+      <c r="Q1792" s="19" t="s">
+        <v>4227</v>
+      </c>
       <c r="S1792" s="19"/>
-      <c r="T1792" s="19"/>
+      <c r="T1792" s="19" t="s">
+        <v>3658</v>
+      </c>
       <c r="V1792" s="19"/>
       <c r="W1792" s="19"/>
       <c r="Y1792" s="19"/>
@@ -73666,9 +73702,10 @@
     <hyperlink ref="P1789" r:id="rId16"/>
     <hyperlink ref="P1790" r:id="rId17"/>
     <hyperlink ref="P1791" r:id="rId18"/>
+    <hyperlink ref="P1792" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -73676,7 +73713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/data/excel/institutions.xlsx
+++ b/data/excel/institutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slasaj\Documents\GitHub\nr-taxonomies\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C46F1-A81E-4575-9107-B3A41B78682E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60334B7-E983-441D-ABA0-BD6576B2872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10326" uniqueCount="4245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10359" uniqueCount="4266">
   <si>
     <t>code</t>
   </si>
@@ -12766,6 +12766,69 @@
   </si>
   <si>
     <t>https://www.iceht.forth.gr</t>
+  </si>
+  <si>
+    <t>Bruker Corporation</t>
+  </si>
+  <si>
+    <t>bruker-corporation</t>
+  </si>
+  <si>
+    <t>https://www.bruker.com/</t>
+  </si>
+  <si>
+    <t>helmholtz-zentrum-dresden-rossendorf</t>
+  </si>
+  <si>
+    <t>HZDR</t>
+  </si>
+  <si>
+    <t>https://ror.org/01zy2cs03</t>
+  </si>
+  <si>
+    <t>https://www.hzdr.de</t>
+  </si>
+  <si>
+    <t>Technische Universität Dresden</t>
+  </si>
+  <si>
+    <t>https://tu-dresden.de/</t>
+  </si>
+  <si>
+    <t>https://ror.org/042aqky30</t>
+  </si>
+  <si>
+    <t>TESCAN Group</t>
+  </si>
+  <si>
+    <t>tescan-group</t>
+  </si>
+  <si>
+    <t>https://ror.org/0556an218</t>
+  </si>
+  <si>
+    <t>https://www.tescan.cz/</t>
+  </si>
+  <si>
+    <t>TESCAN</t>
+  </si>
+  <si>
+    <t>TU Dresden</t>
+  </si>
+  <si>
+    <t>TUD</t>
+  </si>
+  <si>
+    <t>https://ror.org/04r739x86</t>
+  </si>
+  <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>technische-universitat-dresden</t>
+  </si>
+  <si>
+    <t>Helmholtz-Zentrum Dresden-Rossendorf</t>
   </si>
 </sst>
 </file>
@@ -12850,7 +12913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -12889,6 +12952,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -13272,14 +13338,14 @@
   <dimension ref="A1:AMK1802"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1796" sqref="C1796"/>
+      <pane ySplit="5" topLeftCell="A1775" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1796" sqref="P1796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
     <col min="4" max="6" width="32.85546875" customWidth="1"/>
     <col min="7" max="8" width="18.5703125" customWidth="1"/>
@@ -13287,9 +13353,9 @@
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="9" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="21.5703125" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" customWidth="1"/>
     <col min="19" max="19" width="36.140625" customWidth="1"/>
@@ -52016,22 +52082,42 @@
       <c r="AE1795" s="11"/>
     </row>
     <row r="1796" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1796" s="11"/>
-      <c r="B1796" s="11"/>
-      <c r="C1796"/>
+      <c r="A1796" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1796" s="11" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>4245</v>
+      </c>
       <c r="D1796" s="11"/>
       <c r="E1796" s="11"/>
-      <c r="G1796" s="11"/>
+      <c r="F1796" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G1796" s="11" t="s">
+        <v>3642</v>
+      </c>
       <c r="H1796" s="11"/>
+      <c r="I1796" t="s">
+        <v>4263</v>
+      </c>
       <c r="J1796" s="11"/>
       <c r="K1796" s="11"/>
       <c r="M1796" s="11"/>
       <c r="N1796" s="11"/>
       <c r="O1796" s="3"/>
-      <c r="P1796" s="11"/>
-      <c r="Q1796" s="11"/>
+      <c r="P1796" s="20" t="s">
+        <v>4262</v>
+      </c>
+      <c r="Q1796" s="20" t="s">
+        <v>4247</v>
+      </c>
       <c r="S1796" s="11"/>
-      <c r="T1796" s="11"/>
+      <c r="T1796" s="11" t="s">
+        <v>3658</v>
+      </c>
       <c r="V1796" s="11"/>
       <c r="W1796" s="11"/>
       <c r="Y1796" s="11"/>
@@ -52041,22 +52127,42 @@
       <c r="AE1796" s="11"/>
     </row>
     <row r="1797" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1797" s="11"/>
-      <c r="B1797" s="11"/>
-      <c r="C1797"/>
+      <c r="A1797" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>4265</v>
+      </c>
       <c r="D1797" s="11"/>
       <c r="E1797" s="11"/>
-      <c r="G1797" s="11"/>
+      <c r="F1797" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G1797" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H1797" s="11"/>
+      <c r="I1797" t="s">
+        <v>4249</v>
+      </c>
       <c r="J1797" s="11"/>
       <c r="K1797" s="11"/>
       <c r="M1797" s="11"/>
       <c r="N1797" s="11"/>
       <c r="O1797" s="3"/>
-      <c r="P1797" s="11"/>
-      <c r="Q1797" s="11"/>
+      <c r="P1797" s="14" t="s">
+        <v>4250</v>
+      </c>
+      <c r="Q1797" s="19" t="s">
+        <v>4251</v>
+      </c>
       <c r="S1797" s="11"/>
-      <c r="T1797" s="11"/>
+      <c r="T1797" s="11" t="s">
+        <v>3658</v>
+      </c>
       <c r="V1797" s="11"/>
       <c r="W1797" s="11"/>
       <c r="Y1797" s="11"/>
@@ -52066,22 +52172,44 @@
       <c r="AE1797" s="11"/>
     </row>
     <row r="1798" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1798" s="11"/>
-      <c r="B1798" s="11"/>
-      <c r="C1798"/>
+      <c r="A1798" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1798" s="11" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>4252</v>
+      </c>
       <c r="D1798" s="11"/>
       <c r="E1798" s="11"/>
-      <c r="G1798" s="11"/>
+      <c r="F1798" t="s">
+        <v>4252</v>
+      </c>
+      <c r="G1798" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="H1798" s="11"/>
-      <c r="J1798" s="11"/>
+      <c r="I1798" t="s">
+        <v>4261</v>
+      </c>
+      <c r="J1798" s="11" t="s">
+        <v>4260</v>
+      </c>
       <c r="K1798" s="11"/>
       <c r="M1798" s="11"/>
       <c r="N1798" s="11"/>
       <c r="O1798" s="3"/>
-      <c r="P1798" s="11"/>
-      <c r="Q1798" s="11"/>
+      <c r="P1798" s="20" t="s">
+        <v>4254</v>
+      </c>
+      <c r="Q1798" s="20" t="s">
+        <v>4253</v>
+      </c>
       <c r="S1798" s="11"/>
-      <c r="T1798" s="11"/>
+      <c r="T1798" s="11" t="s">
+        <v>3658</v>
+      </c>
       <c r="V1798" s="11"/>
       <c r="W1798" s="11"/>
       <c r="Y1798" s="11"/>
@@ -52091,22 +52219,42 @@
       <c r="AE1798" s="11"/>
     </row>
     <row r="1799" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1799" s="11"/>
-      <c r="B1799" s="11"/>
-      <c r="C1799"/>
+      <c r="A1799" s="11">
+        <v>1</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>4255</v>
+      </c>
       <c r="D1799" s="11"/>
       <c r="E1799" s="11"/>
-      <c r="G1799" s="11"/>
+      <c r="F1799" t="s">
+        <v>4255</v>
+      </c>
+      <c r="G1799" s="11" t="s">
+        <v>3642</v>
+      </c>
       <c r="H1799" s="11"/>
+      <c r="I1799" t="s">
+        <v>4259</v>
+      </c>
       <c r="J1799" s="11"/>
       <c r="K1799" s="11"/>
       <c r="M1799" s="11"/>
       <c r="N1799" s="11"/>
       <c r="O1799" s="3"/>
-      <c r="P1799" s="11"/>
-      <c r="Q1799" s="11"/>
+      <c r="P1799" s="14" t="s">
+        <v>4257</v>
+      </c>
+      <c r="Q1799" s="11" t="s">
+        <v>4258</v>
+      </c>
       <c r="S1799" s="11"/>
-      <c r="T1799" s="11"/>
+      <c r="T1799" s="11" t="s">
+        <v>3658</v>
+      </c>
       <c r="V1799" s="11"/>
       <c r="W1799" s="11"/>
       <c r="Y1799" s="11"/>
@@ -52231,9 +52379,16 @@
     <hyperlink ref="Q1794" r:id="rId23" xr:uid="{D065D368-B70A-4853-AE10-A9D15F816125}"/>
     <hyperlink ref="P1795" r:id="rId24" xr:uid="{FC043AA7-6503-49D7-8FB7-3ACEC8FF0945}"/>
     <hyperlink ref="Q1795" r:id="rId25" display="https://www.iceht.forth.gr/" xr:uid="{4B217C5A-86FB-4FE7-8E87-658F4DF06938}"/>
+    <hyperlink ref="P1796" r:id="rId26" xr:uid="{FF74C211-F879-4D37-89F2-BBA77880D345}"/>
+    <hyperlink ref="Q1796" r:id="rId27" xr:uid="{2186CDBF-7742-4C88-8F38-99BEE8F9DBE6}"/>
+    <hyperlink ref="P1797" r:id="rId28" xr:uid="{4A5CCFC8-47A8-4FCC-A32F-41366CF38C92}"/>
+    <hyperlink ref="Q1797" r:id="rId29" display="https://www.hzdr.de/" xr:uid="{F5C440DD-64C9-46D6-8092-26C781C9C12C}"/>
+    <hyperlink ref="Q1798" r:id="rId30" xr:uid="{AC12729A-889A-424C-9951-4FAE37F55B0B}"/>
+    <hyperlink ref="P1798" r:id="rId31" xr:uid="{0855D185-2F9F-4183-B8D6-4177BBDBBD7F}"/>
+    <hyperlink ref="P1799" r:id="rId32" xr:uid="{C346B899-476E-47CB-B8D0-ED1EDD788577}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
 
